--- a/rpgdemo/xlsxs/dialogs.xlsx
+++ b/rpgdemo/xlsxs/dialogs.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21720" windowHeight="13620" tabRatio="500"/>
+    <workbookView windowWidth="28800" windowHeight="12615" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="@对话表" sheetId="1" r:id="rId1"/>
@@ -12,115 +12,38 @@
     <sheet name="代对表=" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" calcMode="manual" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="81">
-  <si>
-    <t>对话ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对话标题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对话内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选项1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选项2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选项3</t>
-  </si>
-  <si>
-    <t>选项4</t>
-  </si>
-  <si>
-    <t>选项5</t>
-  </si>
-  <si>
-    <t>是否玩家所说</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数3</t>
-  </si>
-  <si>
-    <t>参数4</t>
-  </si>
-  <si>
-    <t>参数5</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80">
   <si>
     <t>id[!.][funcInt]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>headID[.][funcInt]</t>
+  </si>
+  <si>
+    <t>isPlayerSay[.][funcBool]</t>
+  </si>
+  <si>
+    <t>sayname[.][funcStr]</t>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>body</t>
+      <t>title</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>[.][func</t>
@@ -138,29 +61,25 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>]</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>title</t>
+      <t>body</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>[.][func</t>
@@ -178,59 +97,31 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>]</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>menu1[.][funcInt]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>menu2[.][funcInt]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>menu3[.][funcInt]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>menu4[.][funcInt]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>menu5[.][funcInt]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>isPlayerSay[.][funcBool]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>teleport</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>传送到某场景/副本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对话表:datas</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>funcFailMsg</t>
@@ -240,7 +131,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>[.][func</t>
@@ -258,219 +148,231 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>]</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>func1[.][funcStr]</t>
+  </si>
+  <si>
+    <t>funcargs1[.][funcStr]</t>
+  </si>
+  <si>
+    <t>func2[.][funcStr]</t>
+  </si>
+  <si>
+    <t>funcargs2[.][funcStr]</t>
+  </si>
+  <si>
+    <t>func3[.][funcStr]</t>
+  </si>
+  <si>
+    <t>funcargs3[.][funcStr]</t>
+  </si>
+  <si>
+    <t>func4[.][funcStr]</t>
+  </si>
+  <si>
+    <t>funcargs4[.][funcStr]</t>
+  </si>
+  <si>
+    <t>func5[.][funcStr]</t>
+  </si>
+  <si>
+    <t>funcargs5[.][funcStr]</t>
+  </si>
+  <si>
+    <t>对话ID</t>
+  </si>
+  <si>
+    <t>对话头像ID</t>
+  </si>
+  <si>
+    <t>是否玩家所说</t>
+  </si>
+  <si>
+    <t>说话人名</t>
+  </si>
+  <si>
+    <t>对话标题</t>
+  </si>
+  <si>
+    <t>对话内容</t>
+  </si>
+  <si>
+    <t>选项1</t>
+  </si>
+  <si>
+    <t>选项2</t>
+  </si>
+  <si>
+    <t>选项3</t>
+  </si>
+  <si>
+    <t>选项4</t>
+  </si>
+  <si>
+    <t>选项5</t>
   </si>
   <si>
     <t>功能失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>func1[.][funcStr]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>func5[.][funcStr]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>func4[.][funcStr]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>func3[.][funcStr]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>func2[.][funcStr]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能1</t>
   </si>
   <si>
     <t>功能1参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>funcargs1[.][funcStr]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>funcargs2[.][funcStr]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能2</t>
   </si>
   <si>
     <t>功能2参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>funcargs3[.][funcStr]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能3</t>
   </si>
   <si>
     <t>功能3参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>funcargs4[.][funcStr]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能4</t>
   </si>
   <si>
     <t>功能4参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能5</t>
   </si>
   <si>
     <t>功能5参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>funcargs5[.][funcStr]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>对话头像ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋异人</t>
+  </si>
+  <si>
+    <t>最近[#scff00#]村外树林[#sc#]出现很多妖魔，你去杀掉[#scff0000#]10个[#sc#]再回来找我，我会给你奖励的。[#nl#]你一直往东走可以看到一个旋转的光圈，那里便是出村的路口了。</t>
+  </si>
+  <si>
+    <t>不就是几个小妖物，何惧之有。</t>
+  </si>
+  <si>
+    <t>这些村民真是没用，几个小妖就一副如临大敌的样子，我倒要去瞧瞧究竟是何妖物。</t>
+  </si>
+  <si>
+    <t>我没兴趣。</t>
+  </si>
+  <si>
+    <t>closedialog</t>
+  </si>
+  <si>
+    <t>现在出发</t>
+  </si>
+  <si>
+    <t>teleport</t>
+  </si>
+  <si>
+    <t>10011002,25`216,0</t>
+  </si>
+  <si>
+    <t>10011001,545`216,180</t>
+  </si>
+  <si>
+    <t>10012002,150`216,0</t>
+  </si>
+  <si>
+    <t>10012003,180`216,0</t>
+  </si>
+  <si>
+    <t>爱护地球爱护植物</t>
+  </si>
+  <si>
+    <t>10013001,210`120,0</t>
+  </si>
+  <si>
+    <t>叽叽叽叽……</t>
+  </si>
+  <si>
+    <t>10013002,210`120,0</t>
+  </si>
+  <si>
+    <t>是人！是人啊，可怕的人来了</t>
+  </si>
+  <si>
+    <t>10013003,210`120,0</t>
+  </si>
+  <si>
+    <t>你擅闯竹林，准备受死吧！人类</t>
+  </si>
+  <si>
+    <t>10013004,210`120,0</t>
+  </si>
+  <si>
+    <t>功能ID</t>
+  </si>
+  <si>
+    <t>功能描述</t>
+  </si>
+  <si>
+    <t>参数1</t>
+  </si>
+  <si>
+    <t>参数2</t>
+  </si>
+  <si>
+    <t>参数3</t>
+  </si>
+  <si>
+    <t>参数4</t>
+  </si>
+  <si>
+    <t>参数5</t>
+  </si>
+  <si>
+    <t>传送到某场景/副本</t>
+  </si>
+  <si>
+    <t>场景ID</t>
   </si>
   <si>
     <t>坐标(为0则为地图入口点)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不就是几个小妖物，何惧之有。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说话人名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宋异人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>headID[.][funcInt]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sayname[.][funcStr]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>朝向</t>
   </si>
   <si>
     <t>关闭对话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我没兴趣。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>closedialog</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>closedialog</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朝向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对话表:datas</t>
   </si>
   <si>
     <t>角色朝向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0为左</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>180为右</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10011002,25`216,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10011001,545`216,180</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10012002,150`216,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10012003,180`216,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最近[#scff00#]村外树林[#sc#]出现很多妖魔，你去杀掉[#scff0000#]10个[#sc#]再回来找我，我会给你奖励的。[#nl#]你一直往东走可以看到一个旋转的光圈，那里便是出村的路口了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这些村民真是没用，几个小妖就一副如临大敌的样子，我倒要去瞧瞧究竟是何妖物。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现在出发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爱护地球爱护植物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>叽叽叽叽……</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是人！是人啊，可怕的人来了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你擅闯竹林，准备受死吧！人类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10013001,210`120,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10013002,210`120,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10013003,210`120,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10013004,210`120,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -479,37 +381,341 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="11"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -517,44 +723,323 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="47">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="百分比" xfId="10" builtinId="5"/>
+    <cellStyle name="注释" xfId="11" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="12" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="13" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="14" builtinId="11"/>
+    <cellStyle name="标题" xfId="15" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="16" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="17" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="18" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="19" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="20" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="21" builtinId="44"/>
+    <cellStyle name="输出" xfId="22" builtinId="21"/>
+    <cellStyle name="计算" xfId="23" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="25" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="26" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="27" builtinId="24"/>
+    <cellStyle name="汇总" xfId="28" builtinId="25"/>
+    <cellStyle name="好" xfId="29" builtinId="26"/>
+    <cellStyle name="适中" xfId="30" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="31" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="32" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="33" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="34" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="35" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="36" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="37" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="38" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="39" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="40" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="42" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="43" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="44" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="45" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="46" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -874,191 +1359,190 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:V14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="11.5555555555556" defaultRowHeight="17.25"/>
   <cols>
-    <col min="3" max="4" width="25.33203125" customWidth="1"/>
-    <col min="5" max="5" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="64.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="25.3333333333333" customWidth="1"/>
+    <col min="6" max="6" width="64.6666666666667" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="24.6640625" customWidth="1"/>
+    <col min="8" max="8" width="24.6666666666667" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="10" max="10" width="18.88671875" customWidth="1"/>
-    <col min="11" max="11" width="20.109375" customWidth="1"/>
-    <col min="12" max="12" width="27.6640625" customWidth="1"/>
-    <col min="13" max="14" width="35.33203125" customWidth="1"/>
-    <col min="15" max="15" width="27.33203125" customWidth="1"/>
-    <col min="16" max="16" width="35.33203125" customWidth="1"/>
+    <col min="10" max="10" width="18.8888888888889" customWidth="1"/>
+    <col min="11" max="11" width="20.1111111111111" customWidth="1"/>
+    <col min="12" max="12" width="27.6666666666667" customWidth="1"/>
+    <col min="13" max="14" width="35.3333333333333" customWidth="1"/>
+    <col min="15" max="15" width="27.3333333333333" customWidth="1"/>
+    <col min="16" max="16" width="35.3333333333333" customWidth="1"/>
     <col min="17" max="17" width="22" customWidth="1"/>
-    <col min="18" max="18" width="35.33203125" customWidth="1"/>
-    <col min="19" max="19" width="23.33203125" customWidth="1"/>
-    <col min="20" max="20" width="35.33203125" customWidth="1"/>
-    <col min="21" max="21" width="21.44140625" customWidth="1"/>
-    <col min="22" max="22" width="35.33203125" customWidth="1"/>
+    <col min="18" max="18" width="35.3333333333333" customWidth="1"/>
+    <col min="19" max="19" width="23.3333333333333" customWidth="1"/>
+    <col min="20" max="20" width="35.3333333333333" customWidth="1"/>
+    <col min="21" max="21" width="21.4444444444444" customWidth="1"/>
+    <col min="22" max="22" width="35.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="J2" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="K2" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="L2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" t="s">
         <v>35</v>
       </c>
-      <c r="M2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T2" t="s">
         <v>41</v>
       </c>
-      <c r="O2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P2" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>11</v>
-      </c>
-      <c r="R2" t="s">
-        <v>46</v>
-      </c>
-      <c r="S2" t="s">
-        <v>12</v>
-      </c>
-      <c r="T2" t="s">
-        <v>48</v>
-      </c>
       <c r="U2" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="V2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="51.75">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" ht="51.75" spans="1:8">
       <c r="A3">
         <v>10001001</v>
       </c>
       <c r="B3">
         <v>30011001</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>70</v>
+        <v>44</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="G3">
         <v>10001002</v>
@@ -1067,7 +1551,7 @@
         <v>10001003</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>10001002</v>
       </c>
@@ -1075,16 +1559,16 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F4" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="G4">
         <v>10001004</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>10001003</v>
       </c>
@@ -1092,13 +1576,13 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="M5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>10001004</v>
       </c>
@@ -1106,265 +1590,248 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="M6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>20001001</v>
       </c>
       <c r="M7" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="N7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>20001002</v>
       </c>
       <c r="M8" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="N8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>20001003</v>
       </c>
       <c r="M9" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="N9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>20001004</v>
       </c>
       <c r="M10" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="N10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22">
-      <c r="A11" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="5">
         <v>30001001</v>
       </c>
       <c r="F11" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="M11" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22">
-      <c r="A12" s="4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="5">
         <v>30001002</v>
       </c>
       <c r="F12" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="M12" t="s">
-        <v>30</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22">
-      <c r="A13" s="4">
+        <v>51</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="5">
         <v>30001003</v>
       </c>
       <c r="F13" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="M13" t="s">
-        <v>30</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22">
-      <c r="A14" s="4">
+        <v>51</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="5">
         <v>30001004</v>
       </c>
       <c r="F14" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="M14" t="s">
-        <v>30</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>80</v>
+        <v>51</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:G5"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="11.5555555555556" defaultRowHeight="17.25" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="22.88671875" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" customWidth="1"/>
-    <col min="3" max="4" width="23.33203125" customWidth="1"/>
-    <col min="5" max="5" width="23.44140625" customWidth="1"/>
-    <col min="6" max="6" width="25.88671875" customWidth="1"/>
-    <col min="7" max="7" width="26.5546875" customWidth="1"/>
+    <col min="1" max="1" width="22.8888888888889" customWidth="1"/>
+    <col min="2" max="2" width="30.6666666666667" customWidth="1"/>
+    <col min="3" max="4" width="23.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="23.4444444444444" customWidth="1"/>
+    <col min="6" max="6" width="25.8888888888889" customWidth="1"/>
+    <col min="7" max="7" width="26.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="17.25" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" customWidth="1"/>
+    <col min="1" max="1" width="22.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="17.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <sheetData>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>